--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد هشام محمد ابوالعزايم مختار</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Hesham Mohmed</x:t>
+    <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
     <x:t>1210348</x:t>
@@ -626,7 +626,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.850625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد مروان كامل عبد العزيز محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>1180141</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Bishoy Botros Enaam Shehata</x:t>
   </x:si>
   <x:si>
+    <x:t>1210132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210049</x:t>
   </x:si>
   <x:si>
@@ -78,6 +96,15 @@
     <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210350</x:t>
   </x:si>
   <x:si>
@@ -87,15 +114,6 @@
     <x:t>Daniel Raed Mounir Takawi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان محمد سموءل رزق سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan Mohamed Samawal Rezk</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -105,6 +123,15 @@
     <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1190489</x:t>
   </x:si>
   <x:si>
@@ -141,6 +168,15 @@
     <x:t>Mohamed sherif alaa gamal eldin</x:t>
   </x:si>
   <x:si>
+    <x:t>1210290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو هاني حسين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed amr hany hussein sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210027</x:t>
   </x:si>
   <x:si>
@@ -177,13 +213,13 @@
     <x:t>mostafa mohamed saied ibrahim omar</x:t>
   </x:si>
   <x:si>
-    <x:t>1210031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1190535</x:t>
@@ -317,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -625,7 +661,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.850625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.100625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -708,7 +744,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4778943287</x:v>
+        <x:v>45927.4166439815</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -740,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4148960995</x:v>
+        <x:v>45906.4778943287</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -772,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.6844829514</x:v>
+        <x:v>45906.4148960995</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6651225347</x:v>
+        <x:v>45909.6844829514</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45906.6651225347</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45927.5499674421</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6647797454</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45927.4157575579</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45927.4155169792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.7149954514</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6808044792</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4414183218</x:v>
+        <x:v>45916.7149954514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45906.6808044792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1337,134 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.4159330671</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.5516594907</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45906.4155925926</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6662128819</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -87,15 +87,6 @@
     <x:t>Bishoy Kamal Barsoum Kamal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210214</x:t>
   </x:si>
   <x:si>
@@ -238,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>WALEED ASHRAF IBRAHIM ABDELNABI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف سيد بدير احمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef sayed bedier ahmed amin</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -936,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45927.4157575579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4157575579</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45927.4155169792</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4155169792</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4152532755</x:v>
+        <x:v>45916.7149954514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.7149954514</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6808044792</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6808044792</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.5516594907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.5516594907</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45927.746728588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdulrhman khalid mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210251</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -661,7 +670,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.100625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.240625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1032,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4155169792</x:v>
+        <x:v>45928.5889326042</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45927.4155169792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4152532755</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45916.7149954514</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45916.7149954514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6808044792</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45906.6808044792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.5516594907</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45927.5516594907</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.746728588</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45927.746728588</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Bishoy Kamal Barsoum Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
     <x:t>1210214</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -945,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4157575579</x:v>
+        <x:v>45928.7957680556</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45927.4157575579</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.5889326042</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4155169792</x:v>
+        <x:v>45928.5889326042</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45927.4155169792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4152532755</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.7149954514</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45916.7149954514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6808044792</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45906.6808044792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.5516594907</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45927.5516594907</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.746728588</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45927.746728588</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>Daniel Raed Mounir Takawi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله أمير عبد المنعم خفاجي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210352</x:t>
   </x:si>
   <x:si>
@@ -166,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed sayed aly sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد شريف علاء جمال الدين زكى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed sherif alaa gamal eldin</x:t>
   </x:si>
   <x:si>
     <x:t>1210290</x:t>
@@ -371,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1050,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45928.5889326042</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.5889326042</x:v>
+        <x:v>45927.4155169792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4155169792</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45916.7149954514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4152532755</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.7149954514</x:v>
+        <x:v>45906.6808044792</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6808044792</x:v>
+        <x:v>45927.5516594907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.5516594907</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45927.746728588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1483,70 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6662128819</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45927.746728588</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS457_Tutorial-35683.xlsx
+++ b/downloaded_files/MDPS457_Tutorial-35683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Bishoy Kamal Barsoum Kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
     <x:t>1210214</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -936,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.7957680556</x:v>
+        <x:v>45927.4157575579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4157575579</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45928.5889326042</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.5889326042</x:v>
+        <x:v>45927.4155169792</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4155169792</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4152532755</x:v>
+        <x:v>45916.7149954514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45916.7149954514</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6808044792</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6808044792</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.5516594907</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.5516594907</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45927.746728588</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45927.746728588</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
